--- a/out/test/Figori_algorithm_13.xlsx
+++ b/out/test/Figori_algorithm_13.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.70520000000000005</v>
+        <v>0.70379999999999998</v>
       </c>
       <c r="B1">
-        <v>0.26950000000000002</v>
+        <v>0.45619999999999999</v>
       </c>
       <c r="C1">
-        <v>0.45674999999999999</v>
+        <v>0.71035000000000004</v>
       </c>
       <c r="D1">
-        <v>0.68889999999999996</v>
+        <v>0.71484999999999999</v>
       </c>
       <c r="E1">
-        <v>0.69569999999999999</v>
+        <v>0.69235000000000002</v>
       </c>
       <c r="F1">
+        <v>0.2712</v>
+      </c>
+      <c r="G1">
+        <v>0.68774999999999997</v>
+      </c>
+      <c r="H1">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="I1">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="J1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="K1">
+        <v>0.45074999999999998</v>
+      </c>
+      <c r="L1">
+        <v>0.26929999999999998</v>
+      </c>
+      <c r="M1">
+        <v>0.69094999999999995</v>
+      </c>
+      <c r="N1">
         <v>0.68794999999999995</v>
       </c>
-      <c r="G1">
-        <v>0.45269999999999999</v>
-      </c>
-      <c r="H1">
-        <v>0.71340000000000003</v>
-      </c>
-      <c r="I1">
-        <v>0.71194999999999997</v>
-      </c>
-      <c r="J1">
-        <v>0.69479999999999997</v>
-      </c>
-      <c r="K1">
-        <v>0.45479999999999998</v>
-      </c>
-      <c r="L1">
-        <v>0.27205000000000001</v>
-      </c>
-      <c r="M1">
-        <v>0.68935000000000002</v>
-      </c>
-      <c r="N1">
-        <v>0.45250000000000001</v>
-      </c>
       <c r="O1">
-        <v>0.71889999999999998</v>
+        <v>0.26540000000000002</v>
       </c>
       <c r="P1">
-        <v>0.2737</v>
+        <v>0.27079999999999999</v>
       </c>
       <c r="Q1">
-        <v>0.71140000000000003</v>
+        <v>0.69489999999999996</v>
       </c>
       <c r="R1">
-        <v>0.68769999999999998</v>
+        <v>0.70365</v>
       </c>
       <c r="S1">
-        <v>0.45629999999999998</v>
+        <v>0.70374999999999999</v>
       </c>
       <c r="T1">
-        <v>0.68820000000000003</v>
+        <v>0.69130000000000003</v>
       </c>
       <c r="U1">
-        <v>0.69704999999999995</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="V1">
-        <v>0.27400000000000002</v>
+        <v>0.69035000000000002</v>
       </c>
       <c r="W1">
-        <v>0.68445</v>
+        <v>0.71089999999999998</v>
       </c>
       <c r="X1">
-        <v>0.27</v>
+        <v>0.71094999999999997</v>
       </c>
       <c r="Y1">
-        <v>0.70345000000000002</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="Z1">
-        <v>0.70955000000000001</v>
+        <v>0.70850000000000002</v>
       </c>
       <c r="AA1">
-        <v>0.27010000000000001</v>
+        <v>0.70735000000000003</v>
       </c>
       <c r="AB1">
-        <v>0.70894999999999997</v>
+        <v>0.69174999999999998</v>
       </c>
       <c r="AC1">
-        <v>0.71294999999999997</v>
+        <v>0.71150000000000002</v>
       </c>
       <c r="AD1">
-        <v>0.27529999999999999</v>
+        <v>0.26924999999999999</v>
       </c>
       <c r="AE1">
-        <v>0.70894999999999997</v>
+        <v>0.68874999999999997</v>
       </c>
       <c r="AF1">
-        <v>0.45839999999999997</v>
+        <v>0.45729999999999998</v>
       </c>
       <c r="AG1">
-        <v>0.27495000000000003</v>
+        <v>0.27310000000000001</v>
       </c>
       <c r="AH1">
-        <v>0.2792</v>
+        <v>0.70720000000000005</v>
       </c>
       <c r="AI1">
-        <v>0.69074999999999998</v>
+        <v>0.45305000000000001</v>
       </c>
       <c r="AJ1">
-        <v>0.71089999999999998</v>
+        <v>0.6885</v>
       </c>
       <c r="AK1">
-        <v>0.27300000000000002</v>
+        <v>0.2787</v>
       </c>
       <c r="AL1">
-        <v>0.69355</v>
+        <v>0.27350000000000002</v>
       </c>
       <c r="AM1">
-        <v>0.27579999999999999</v>
+        <v>0.71025000000000005</v>
       </c>
       <c r="AN1">
-        <v>0.27034999999999998</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="AO1">
-        <v>0.27305000000000001</v>
+        <v>0.45655000000000001</v>
       </c>
       <c r="AP1">
-        <v>0.69320000000000004</v>
+        <v>0.69235000000000002</v>
       </c>
       <c r="AQ1">
-        <v>0.69235000000000002</v>
+        <v>0.71304999999999996</v>
       </c>
       <c r="AR1">
-        <v>0.69255</v>
+        <v>0.27110000000000001</v>
       </c>
       <c r="AS1">
-        <v>0.71445000000000003</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="AT1">
-        <v>0.68640000000000001</v>
+        <v>0.70745000000000002</v>
       </c>
       <c r="AU1">
-        <v>0.27024999999999999</v>
+        <v>0.45395000000000002</v>
       </c>
       <c r="AV1">
-        <v>0.45689999999999997</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="AW1">
-        <v>0.69310000000000005</v>
+        <v>0.4511</v>
       </c>
       <c r="AX1">
-        <v>0.70920000000000005</v>
+        <v>0.71020000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.69725000000000004</v>
+      </c>
+      <c r="B2">
+        <v>0.43264999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.68974999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.69035000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.2646</v>
+      </c>
+      <c r="G2">
+        <v>0.67405000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.48704999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.43645</v>
+      </c>
+      <c r="L2">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.67645</v>
+      </c>
+      <c r="N2">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.26795000000000002</v>
+      </c>
+      <c r="P2">
+        <v>0.28610000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.69435000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.67895000000000005</v>
+      </c>
+      <c r="S2">
         <v>0.69220000000000004</v>
       </c>
-      <c r="B2">
-        <v>0.26960000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.43209999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.66525000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="F2">
-        <v>0.94064999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.43905</v>
-      </c>
-      <c r="H2">
-        <v>0.69455</v>
-      </c>
-      <c r="I2">
-        <v>0.70430000000000004</v>
-      </c>
-      <c r="J2">
-        <v>0.68284999999999996</v>
-      </c>
-      <c r="K2">
-        <v>0.438</v>
-      </c>
-      <c r="L2">
-        <v>0.25514999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.67705000000000004</v>
-      </c>
-      <c r="N2">
-        <v>0.44269999999999998</v>
-      </c>
-      <c r="O2">
-        <v>0.69889999999999997</v>
-      </c>
-      <c r="P2">
-        <v>0.28694999999999998</v>
-      </c>
-      <c r="Q2">
-        <v>0.69115000000000004</v>
-      </c>
-      <c r="R2">
-        <v>0.91895000000000004</v>
-      </c>
-      <c r="S2">
-        <v>0.44140000000000001</v>
-      </c>
       <c r="T2">
-        <v>0.67084999999999995</v>
+        <v>0.67210000000000003</v>
       </c>
       <c r="U2">
-        <v>0.66459999999999997</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="V2">
-        <v>0.26829999999999998</v>
+        <v>0.66910000000000003</v>
       </c>
       <c r="W2">
-        <v>0.26</v>
+        <v>0.69494999999999996</v>
       </c>
       <c r="X2">
-        <v>0.28139999999999998</v>
+        <v>0.66164999999999996</v>
       </c>
       <c r="Y2">
-        <v>0.67105000000000004</v>
+        <v>0.44214999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.68720000000000003</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="AA2">
-        <v>0.25974999999999998</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="AB2">
-        <v>0.69889999999999997</v>
+        <v>0.68564999999999998</v>
       </c>
       <c r="AC2">
-        <v>0.69745000000000001</v>
+        <v>0.92390000000000005</v>
       </c>
       <c r="AD2">
-        <v>0.26329999999999998</v>
+        <v>0.26779999999999998</v>
       </c>
       <c r="AE2">
-        <v>0.69310000000000005</v>
+        <v>0.67390000000000005</v>
       </c>
       <c r="AF2">
-        <v>0.7177</v>
+        <v>0.44105</v>
       </c>
       <c r="AG2">
-        <v>0.27379999999999999</v>
+        <v>0.28705000000000003</v>
       </c>
       <c r="AH2">
-        <v>0.27274999999999999</v>
+        <v>0.6885</v>
       </c>
       <c r="AI2">
-        <v>0.69084999999999996</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="AJ2">
-        <v>0.68494999999999995</v>
+        <v>0.66720000000000002</v>
       </c>
       <c r="AK2">
-        <v>0.26334999999999997</v>
+        <v>0.26884999999999998</v>
       </c>
       <c r="AL2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>0.70594999999999997</v>
+      </c>
+      <c r="AN2">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="AO2">
+        <v>0.4491</v>
+      </c>
+      <c r="AP2">
         <v>0.66869999999999996</v>
       </c>
-      <c r="AM2">
-        <v>0.26910000000000001</v>
-      </c>
-      <c r="AN2">
-        <v>0.67110000000000003</v>
-      </c>
-      <c r="AO2">
-        <v>0.26390000000000002</v>
-      </c>
-      <c r="AP2">
-        <v>0.25905</v>
-      </c>
       <c r="AQ2">
-        <v>0.67525000000000002</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="AR2">
-        <v>0.66805000000000003</v>
+        <v>0.27765000000000001</v>
       </c>
       <c r="AS2">
-        <v>0.68569999999999998</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.67574999999999996</v>
+        <v>0.96255000000000002</v>
       </c>
       <c r="AU2">
-        <v>0.26240000000000002</v>
+        <v>0.44450000000000001</v>
       </c>
       <c r="AV2">
-        <v>0.43330000000000002</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="AW2">
-        <v>0.71889999999999998</v>
+        <v>0.45124999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.68220000000000003</v>
+        <v>0.69625000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.68400000000000005</v>
+        <v>0.67379999999999995</v>
       </c>
       <c r="B3">
-        <v>0.50544999999999995</v>
+        <v>0.41244999999999998</v>
       </c>
       <c r="C3">
-        <v>0.41385</v>
+        <v>0.65754999999999997</v>
       </c>
       <c r="D3">
-        <v>0.93559999999999999</v>
+        <v>0.64924999999999999</v>
       </c>
       <c r="E3">
-        <v>0.8962</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="F3">
-        <v>0.49595</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="G3">
-        <v>0.4017</v>
+        <v>0.62814999999999999</v>
       </c>
       <c r="H3">
-        <v>0.66949999999999998</v>
+        <v>0.40789999999999998</v>
       </c>
       <c r="I3">
-        <v>0.93320000000000003</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="J3">
-        <v>0.64529999999999998</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="K3">
-        <v>0.67900000000000005</v>
+        <v>0.67859999999999998</v>
       </c>
       <c r="L3">
-        <v>0.252</v>
+        <v>0.28889999999999999</v>
       </c>
       <c r="M3">
-        <v>0.68015000000000003</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="N3">
-        <v>0.41949999999999998</v>
+        <v>0.86424999999999996</v>
       </c>
       <c r="O3">
-        <v>0.67344999999999999</v>
+        <v>0.27155000000000001</v>
       </c>
       <c r="P3">
-        <v>0.26695000000000002</v>
+        <v>0.29609999999999997</v>
       </c>
       <c r="Q3">
-        <v>0.73580000000000001</v>
+        <v>0.65190000000000003</v>
       </c>
       <c r="R3">
-        <v>0.9073</v>
+        <v>0.81794999999999995</v>
       </c>
       <c r="S3">
-        <v>0.4178</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="T3">
-        <v>0.72435000000000005</v>
+        <v>0.66379999999999995</v>
       </c>
       <c r="U3">
         <v>0.65825</v>
       </c>
       <c r="V3">
-        <v>0.26879999999999998</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="W3">
-        <v>0.25345000000000001</v>
+        <v>0.66664999999999996</v>
       </c>
       <c r="X3">
-        <v>0.66835</v>
+        <v>0.60819999999999996</v>
       </c>
       <c r="Y3">
-        <v>0.66149999999999998</v>
+        <v>0.65964999999999996</v>
       </c>
       <c r="Z3">
-        <v>0.66790000000000005</v>
+        <v>0.9466</v>
       </c>
       <c r="AA3">
-        <v>4.215E-2</v>
+        <v>0.66595000000000004</v>
       </c>
       <c r="AB3">
-        <v>0.67</v>
+        <v>0.69225000000000003</v>
       </c>
       <c r="AC3">
-        <v>0.92969999999999997</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="AD3">
-        <v>0.84835000000000005</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.66700000000000004</v>
+        <v>0.2571</v>
       </c>
       <c r="AF3">
-        <v>0.9304</v>
+        <v>0.49425000000000002</v>
       </c>
       <c r="AG3">
-        <v>0.88485000000000003</v>
+        <v>0.25774999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.26905000000000001</v>
+        <v>0.67789999999999995</v>
       </c>
       <c r="AI3">
-        <v>0.65510000000000002</v>
+        <v>0.4738</v>
       </c>
       <c r="AJ3">
-        <v>0.67254999999999998</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="AK3">
-        <v>0.2442</v>
+        <v>0.24174999999999999</v>
       </c>
       <c r="AL3">
-        <v>0.62709999999999999</v>
+        <v>0.23905000000000001</v>
       </c>
       <c r="AM3">
-        <v>0.25485000000000002</v>
+        <v>0.9153</v>
       </c>
       <c r="AN3">
-        <v>0.26035000000000003</v>
+        <v>0.63365000000000005</v>
       </c>
       <c r="AO3">
-        <v>0.23449999999999999</v>
+        <v>0.42595</v>
       </c>
       <c r="AP3">
-        <v>0.2366</v>
+        <v>0.6714</v>
       </c>
       <c r="AQ3">
-        <v>0.64854999999999996</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="AR3">
-        <v>0.68859999999999999</v>
+        <v>0.27150000000000002</v>
       </c>
       <c r="AS3">
-        <v>0.68559999999999999</v>
+        <v>0.69894999999999996</v>
       </c>
       <c r="AT3">
-        <v>0.61865000000000003</v>
+        <v>0.95415000000000005</v>
       </c>
       <c r="AU3">
-        <v>0.26795000000000002</v>
+        <v>0.41394999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.3795</v>
+        <v>0.69845000000000002</v>
       </c>
       <c r="AW3">
-        <v>0.69410000000000005</v>
+        <v>0.42664999999999997</v>
       </c>
       <c r="AX3">
-        <v>0.26100000000000001</v>
+        <v>0.67190000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.88534999999999997</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="B4">
-        <v>0.50514999999999999</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="C4">
-        <v>0.47610000000000002</v>
+        <v>0.61709999999999998</v>
       </c>
       <c r="D4">
-        <v>0.87819999999999998</v>
+        <v>0.67384999999999995</v>
       </c>
       <c r="E4">
-        <v>0.88170000000000004</v>
+        <v>0.61434999999999995</v>
       </c>
       <c r="F4">
-        <v>0.87514999999999998</v>
+        <v>0.90429999999999999</v>
       </c>
       <c r="G4">
-        <v>0.37519999999999998</v>
+        <v>0.23845</v>
       </c>
       <c r="H4">
-        <v>0.59750000000000003</v>
+        <v>0.47075</v>
       </c>
       <c r="I4">
-        <v>0.87705</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="J4">
-        <v>0.61739999999999995</v>
+        <v>0.25324999999999998</v>
       </c>
       <c r="K4">
-        <v>0.78105000000000002</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="L4">
-        <v>0.22534999999999999</v>
+        <v>0.27615000000000001</v>
       </c>
       <c r="M4">
-        <v>0.95189999999999997</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="N4">
-        <v>0.47299999999999998</v>
+        <v>0.87224999999999997</v>
       </c>
       <c r="O4">
-        <v>0.89070000000000005</v>
+        <v>0.27274999999999999</v>
       </c>
       <c r="P4">
-        <v>0.27700000000000002</v>
+        <v>0.30285000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.76214999999999999</v>
+        <v>0.81869999999999998</v>
       </c>
       <c r="R4">
-        <v>0.90015000000000001</v>
+        <v>0.11955</v>
       </c>
       <c r="S4">
-        <v>0.82155</v>
+        <v>0.31235000000000002</v>
       </c>
       <c r="T4">
-        <v>0.72414999999999996</v>
+        <v>0.63905000000000001</v>
       </c>
       <c r="U4">
-        <v>0.86104999999999998</v>
+        <v>0.26064999999999999</v>
       </c>
       <c r="V4">
-        <v>0.25219999999999998</v>
+        <v>0.28684999999999999</v>
       </c>
       <c r="W4">
-        <v>0.28365000000000001</v>
+        <v>0.30345</v>
       </c>
       <c r="X4">
-        <v>0.64185000000000003</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.33825</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="Z4">
-        <v>0.64244999999999997</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="AA4">
-        <v>5.5500000000000001E-2</v>
+        <v>0.62980000000000003</v>
       </c>
       <c r="AB4">
-        <v>0.60665000000000002</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="AC4">
-        <v>0.93</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="AD4">
-        <v>0.49485000000000001</v>
+        <v>0.48575000000000002</v>
       </c>
       <c r="AE4">
-        <v>0.40505000000000002</v>
+        <v>0.29994999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.89954999999999996</v>
+        <v>0.48920000000000002</v>
       </c>
       <c r="AG4">
-        <v>0.82715000000000005</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="AH4">
-        <v>0.28570000000000001</v>
+        <v>0.66735</v>
       </c>
       <c r="AI4">
-        <v>0.26850000000000002</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="AJ4">
-        <v>0.6139</v>
+        <v>0.95789999999999997</v>
       </c>
       <c r="AK4">
-        <v>0.28744999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="AL4">
-        <v>0.69235000000000002</v>
+        <v>0.28684999999999999</v>
       </c>
       <c r="AM4">
-        <v>0.25955</v>
+        <v>0.87749999999999995</v>
       </c>
       <c r="AN4">
-        <v>0.28889999999999999</v>
+        <v>0.31430000000000002</v>
       </c>
       <c r="AO4">
-        <v>0.2382</v>
+        <v>0.38045000000000001</v>
       </c>
       <c r="AP4">
-        <v>0.28820000000000001</v>
+        <v>0.29885</v>
       </c>
       <c r="AQ4">
-        <v>0.6109</v>
+        <v>0.91615000000000002</v>
       </c>
       <c r="AR4">
-        <v>0.93494999999999995</v>
+        <v>0.29680000000000001</v>
       </c>
       <c r="AS4">
-        <v>0.68820000000000003</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="AT4">
-        <v>0.5464</v>
+        <v>0.90225</v>
       </c>
       <c r="AU4">
-        <v>0.29110000000000003</v>
+        <v>0.62385000000000002</v>
       </c>
       <c r="AV4">
-        <v>0.68735000000000002</v>
+        <v>0.67379999999999995</v>
       </c>
       <c r="AW4">
-        <v>0.73850000000000005</v>
+        <v>0.37630000000000002</v>
       </c>
       <c r="AX4">
-        <v>0.26424999999999998</v>
+        <v>0.69674999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.45379999999999998</v>
+        <v>0.61229999999999996</v>
       </c>
       <c r="B5">
-        <v>0.12715000000000001</v>
+        <v>0.41144999999999998</v>
       </c>
       <c r="C5">
-        <v>0.75519999999999998</v>
+        <v>0.56325000000000003</v>
       </c>
       <c r="D5">
-        <v>0.86919999999999997</v>
+        <v>0.24990000000000001</v>
       </c>
       <c r="E5">
-        <v>0.51439999999999997</v>
+        <v>0.85650000000000004</v>
       </c>
       <c r="F5">
-        <v>0.79090000000000005</v>
+        <v>0.89175000000000004</v>
       </c>
       <c r="G5">
-        <v>0.38285000000000002</v>
+        <v>0.28939999999999999</v>
       </c>
       <c r="H5">
-        <v>0.66264999999999996</v>
+        <v>0.46779999999999999</v>
       </c>
       <c r="I5">
-        <v>2.605E-2</v>
+        <v>0.7671</v>
       </c>
       <c r="J5">
-        <v>0.26295000000000002</v>
+        <v>0.21124999999999999</v>
       </c>
       <c r="K5">
-        <v>0.97714999999999996</v>
+        <v>0.70474999999999999</v>
       </c>
       <c r="L5">
-        <v>0.25624999999999998</v>
+        <v>6.1650000000000003E-2</v>
       </c>
       <c r="M5">
-        <v>0.94610000000000005</v>
+        <v>0.35235</v>
       </c>
       <c r="N5">
-        <v>0.76619999999999999</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="O5">
-        <v>0.85714999999999997</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="P5">
-        <v>0.58794999999999997</v>
+        <v>0.28475</v>
       </c>
       <c r="Q5">
-        <v>0.54735</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="R5">
-        <v>0.55854999999999999</v>
+        <v>0.16475000000000001</v>
       </c>
       <c r="S5">
-        <v>0.85129999999999995</v>
+        <v>0.23705000000000001</v>
       </c>
       <c r="T5">
-        <v>0.40439999999999998</v>
+        <v>0.5645</v>
       </c>
       <c r="U5">
-        <v>0.58160000000000001</v>
+        <v>0.70774999999999999</v>
       </c>
       <c r="V5">
-        <v>0.25805</v>
+        <v>0.25205</v>
       </c>
       <c r="W5">
-        <v>0.34405000000000002</v>
+        <v>0.33574999999999999</v>
       </c>
       <c r="X5">
-        <v>0.92430000000000001</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="Y5">
-        <v>0.37025000000000002</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="Z5">
-        <v>0.47725000000000001</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="AA5">
-        <v>8.795E-2</v>
+        <v>0.61214999999999997</v>
       </c>
       <c r="AB5">
-        <v>0.56374999999999997</v>
+        <v>0.68735000000000002</v>
       </c>
       <c r="AC5">
-        <v>0.96735000000000004</v>
+        <v>0.55654999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.34670000000000001</v>
+        <v>0.50654999999999994</v>
       </c>
       <c r="AE5">
-        <v>0.41594999999999999</v>
+        <v>0.30859999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.79510000000000003</v>
+        <v>0.48814999999999997</v>
       </c>
       <c r="AG5">
-        <v>0.82584999999999997</v>
+        <v>0.27984999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.32700000000000001</v>
+        <v>0.27950000000000003</v>
       </c>
       <c r="AI5">
-        <v>0.72389999999999999</v>
+        <v>0.3014</v>
       </c>
       <c r="AJ5">
-        <v>0.59435000000000004</v>
+        <v>0.63754999999999995</v>
       </c>
       <c r="AK5">
-        <v>0.61685000000000001</v>
+        <v>0.68445</v>
       </c>
       <c r="AL5">
-        <v>0.68405000000000005</v>
+        <v>0.39140000000000003</v>
       </c>
       <c r="AM5">
-        <v>0.2447</v>
+        <v>0.86975000000000002</v>
       </c>
       <c r="AN5">
-        <v>0.31064999999999998</v>
+        <v>0.28055000000000002</v>
       </c>
       <c r="AO5">
-        <v>0.73634999999999995</v>
+        <v>0.37840000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.26124999999999998</v>
+        <v>0.3236</v>
       </c>
       <c r="AQ5">
-        <v>0.60755000000000003</v>
+        <v>0.46834999999999999</v>
       </c>
       <c r="AR5">
-        <v>0.84894999999999998</v>
+        <v>0.39479999999999998</v>
       </c>
       <c r="AS5">
-        <v>0.66700000000000004</v>
+        <v>0.69464999999999999</v>
       </c>
       <c r="AT5">
-        <v>0.84319999999999995</v>
+        <v>0.89915</v>
       </c>
       <c r="AU5">
-        <v>0.67295000000000005</v>
+        <v>0.23735000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.77890000000000004</v>
+        <v>0.62439999999999996</v>
       </c>
       <c r="AW5">
-        <v>0.76024999999999998</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="AX5">
-        <v>0.32414999999999999</v>
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.1091</v>
+        <v>0.38129999999999997</v>
       </c>
       <c r="B6">
-        <v>0.2316</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="C6">
-        <v>0.71009999999999995</v>
+        <v>0.57145000000000001</v>
       </c>
       <c r="D6">
-        <v>0.58340000000000003</v>
+        <v>0.15515000000000001</v>
       </c>
       <c r="E6">
-        <v>0.1573</v>
+        <v>0.93545</v>
       </c>
       <c r="F6">
-        <v>0.17755000000000001</v>
+        <v>0.47075</v>
       </c>
       <c r="G6">
-        <v>0.4768</v>
+        <v>0.53990000000000005</v>
       </c>
       <c r="H6">
-        <v>0.66215000000000002</v>
+        <v>0.80389999999999995</v>
       </c>
       <c r="I6">
-        <v>7.0199999999999999E-2</v>
+        <v>0.48294999999999999</v>
       </c>
       <c r="J6">
-        <v>0.80410000000000004</v>
+        <v>0.51805000000000001</v>
       </c>
       <c r="K6">
-        <v>0.94799999999999995</v>
+        <v>0.95120000000000005</v>
       </c>
       <c r="L6">
-        <v>0.62119999999999997</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="M6">
-        <v>0.95384999999999998</v>
+        <v>0.25530000000000003</v>
       </c>
       <c r="N6">
-        <v>0.80579999999999996</v>
+        <v>0.10195</v>
       </c>
       <c r="O6">
-        <v>0.55600000000000005</v>
+        <v>0.40194999999999997</v>
       </c>
       <c r="P6">
-        <v>0.32135000000000002</v>
+        <v>0.22214999999999999</v>
       </c>
       <c r="Q6">
-        <v>0.6784</v>
+        <v>0.48670000000000002</v>
       </c>
       <c r="R6">
-        <v>0.49859999999999999</v>
+        <v>0.53325</v>
       </c>
       <c r="S6">
-        <v>0.92295000000000005</v>
+        <v>0.61665000000000003</v>
       </c>
       <c r="T6">
-        <v>0.39374999999999999</v>
+        <v>0.26989999999999997</v>
       </c>
       <c r="U6">
-        <v>0.61445000000000005</v>
+        <v>0.87219999999999998</v>
       </c>
       <c r="V6">
-        <v>0.50680000000000003</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="W6">
-        <v>0.44114999999999999</v>
+        <v>0.28970000000000001</v>
       </c>
       <c r="X6">
-        <v>0.92900000000000005</v>
+        <v>0.22695000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.31979999999999997</v>
+        <v>0.47954999999999998</v>
       </c>
       <c r="Z6">
-        <v>0.50209999999999999</v>
+        <v>0.23235</v>
       </c>
       <c r="AA6">
-        <v>0.24465000000000001</v>
+        <v>0.80840000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.67600000000000005</v>
+        <v>0.30470000000000003</v>
       </c>
       <c r="AC6">
-        <v>0.51924999999999999</v>
+        <v>0.49270000000000003</v>
       </c>
       <c r="AD6">
-        <v>0.50505</v>
+        <v>0.52995000000000003</v>
       </c>
       <c r="AE6">
-        <v>0.37514999999999998</v>
+        <v>0.43990000000000001</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.48180000000000001</v>
       </c>
       <c r="AG6">
-        <v>9.0050000000000005E-2</v>
+        <v>0.44345000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.34315000000000001</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="AI6">
+        <v>0.39734999999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="AK6">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="AL6">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="AM6">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="AN6">
         <v>0.32740000000000002</v>
       </c>
-      <c r="AJ6">
-        <v>0.55769999999999997</v>
-      </c>
-      <c r="AK6">
-        <v>0.68020000000000003</v>
-      </c>
-      <c r="AL6">
-        <v>0.70545000000000002</v>
-      </c>
-      <c r="AM6">
-        <v>0.43575000000000003</v>
-      </c>
-      <c r="AN6">
-        <v>0.37755</v>
-      </c>
       <c r="AO6">
-        <v>0.2666</v>
+        <v>0.69294999999999995</v>
       </c>
       <c r="AP6">
-        <v>0.32690000000000002</v>
+        <v>0.40415000000000001</v>
       </c>
       <c r="AQ6">
-        <v>0.67710000000000004</v>
+        <v>6.8349999999999994E-2</v>
       </c>
       <c r="AR6">
-        <v>9.4799999999999995E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AS6">
-        <v>0.75770000000000004</v>
+        <v>0.47175</v>
       </c>
       <c r="AT6">
-        <v>0.24690000000000001</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="AU6">
-        <v>0.41860000000000003</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AV6">
-        <v>0.2344</v>
+        <v>0.41804999999999998</v>
       </c>
       <c r="AW6">
-        <v>0.67825000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.20335</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.2417</v>
+        <v>0.41735</v>
       </c>
       <c r="B7">
-        <v>0.28375</v>
+        <v>0.76624999999999999</v>
       </c>
       <c r="C7">
-        <v>0.13320000000000001</v>
+        <v>0.97855000000000003</v>
       </c>
       <c r="D7">
-        <v>0.10664999999999999</v>
+        <v>0.21095</v>
       </c>
       <c r="E7">
-        <v>7.9899999999999999E-2</v>
+        <v>0.97929999999999995</v>
       </c>
       <c r="F7">
-        <v>0.26469999999999999</v>
+        <v>0.2843</v>
       </c>
       <c r="G7">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H7">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.46584999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.49985000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.78215000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.48375000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.65034999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.52344999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.41065000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="T7">
+        <v>0.43905</v>
+      </c>
+      <c r="U7">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="V7">
+        <v>0.53554999999999997</v>
+      </c>
+      <c r="W7">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="X7">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.49185000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="AB7">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.1789</v>
+      </c>
+      <c r="AD7">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="AE7">
+        <v>0.66425000000000001</v>
+      </c>
+      <c r="AF7">
         <v>0.69235000000000002</v>
       </c>
-      <c r="H7">
-        <v>0.30375000000000002</v>
-      </c>
-      <c r="I7">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="J7">
-        <v>0.8679</v>
-      </c>
-      <c r="K7">
-        <v>0.74790000000000001</v>
-      </c>
-      <c r="L7">
-        <v>0.75924999999999998</v>
-      </c>
-      <c r="M7">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="N7">
-        <v>0.51280000000000003</v>
-      </c>
-      <c r="O7">
-        <v>0.83230000000000004</v>
-      </c>
-      <c r="P7">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="Q7">
-        <v>0.56264999999999998</v>
-      </c>
-      <c r="R7">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="S7">
-        <v>0.77710000000000001</v>
-      </c>
-      <c r="T7">
-        <v>0.45929999999999999</v>
-      </c>
-      <c r="U7">
-        <v>0.7026</v>
-      </c>
-      <c r="V7">
-        <v>0.93235000000000001</v>
-      </c>
-      <c r="W7">
-        <v>0.34815000000000002</v>
-      </c>
-      <c r="X7">
-        <v>0.90175000000000005</v>
-      </c>
-      <c r="Y7">
-        <v>0.21834999999999999</v>
-      </c>
-      <c r="Z7">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="AA7">
-        <v>0.25774999999999998</v>
-      </c>
-      <c r="AB7">
-        <v>0.52024999999999999</v>
-      </c>
-      <c r="AC7">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="AD7">
-        <v>0.50209999999999999</v>
-      </c>
-      <c r="AE7">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="AF7">
-        <v>0.78769999999999996</v>
-      </c>
       <c r="AG7">
-        <v>8.5650000000000004E-2</v>
+        <v>0.69215000000000004</v>
       </c>
       <c r="AH7">
-        <v>0.31929999999999997</v>
+        <v>0.70069999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.42135</v>
+        <v>0.5444</v>
       </c>
       <c r="AJ7">
-        <v>0.21129999999999999</v>
+        <v>0.32940000000000003</v>
       </c>
       <c r="AK7">
-        <v>0.51100000000000001</v>
+        <v>0.33184999999999998</v>
       </c>
       <c r="AL7">
-        <v>0.72814999999999996</v>
+        <v>0.33755000000000002</v>
       </c>
       <c r="AM7">
-        <v>0.64444999999999997</v>
+        <v>0.41184999999999999</v>
       </c>
       <c r="AN7">
-        <v>0.43985000000000002</v>
+        <v>0.2838</v>
       </c>
       <c r="AO7">
-        <v>0.22005</v>
+        <v>0.40155000000000002</v>
       </c>
       <c r="AP7">
-        <v>0.48885000000000001</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="AQ7">
-        <v>0.72109999999999996</v>
+        <v>7.2550000000000003E-2</v>
       </c>
       <c r="AR7">
-        <v>0.51970000000000005</v>
+        <v>8.0449999999999994E-2</v>
       </c>
       <c r="AS7">
-        <v>0.54844999999999999</v>
+        <v>0.41685</v>
       </c>
       <c r="AT7">
-        <v>0.74050000000000005</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="AU7">
-        <v>0.42220000000000002</v>
+        <v>0.34610000000000002</v>
       </c>
       <c r="AV7">
-        <v>0.64439999999999997</v>
+        <v>0.80915000000000004</v>
       </c>
       <c r="AW7">
-        <v>9.9199999999999997E-2</v>
+        <v>0.66390000000000005</v>
       </c>
       <c r="AX7">
-        <v>0.1973</v>
+        <v>0.33805000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.30969999999999998</v>
+        <v>0.49330000000000002</v>
       </c>
       <c r="B8">
-        <v>0.43180000000000002</v>
+        <v>0.48280000000000001</v>
       </c>
       <c r="C8">
-        <v>0.22889999999999999</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="D8">
-        <v>0.37269999999999998</v>
+        <v>8.7099999999999997E-2</v>
       </c>
       <c r="E8">
-        <v>0.18459999999999999</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="F8">
-        <v>0.14940000000000001</v>
+        <v>7.0349999999999996E-2</v>
       </c>
       <c r="G8">
-        <v>0.94899999999999995</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="H8">
-        <v>0.27939999999999998</v>
+        <v>0.24504999999999999</v>
       </c>
       <c r="I8">
-        <v>0.22935</v>
+        <v>0.63554999999999995</v>
       </c>
       <c r="J8">
-        <v>0.71165</v>
+        <v>0.80659999999999998</v>
       </c>
       <c r="K8">
-        <v>0.46765000000000001</v>
+        <v>0.67210000000000003</v>
       </c>
       <c r="L8">
-        <v>0.88929999999999998</v>
+        <v>0.49769999999999998</v>
       </c>
       <c r="M8">
-        <v>0.45319999999999999</v>
+        <v>0.54690000000000005</v>
       </c>
       <c r="N8">
-        <v>0.41549999999999998</v>
+        <v>0.54849999999999999</v>
       </c>
       <c r="O8">
-        <v>0.28415000000000001</v>
+        <v>0.81364999999999998</v>
       </c>
       <c r="P8">
-        <v>0.50514999999999999</v>
+        <v>0.7046</v>
       </c>
       <c r="Q8">
-        <v>0.92069999999999996</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="R8">
-        <v>0.11265</v>
+        <v>0.37395</v>
       </c>
       <c r="S8">
-        <v>0.71335000000000004</v>
+        <v>0.17449999999999999</v>
       </c>
       <c r="T8">
-        <v>0.12645000000000001</v>
+        <v>0.47184999999999999</v>
       </c>
       <c r="U8">
-        <v>0.31364999999999998</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="V8">
-        <v>0.79474999999999996</v>
+        <v>0.40534999999999999</v>
       </c>
       <c r="W8">
-        <v>0.19434999999999999</v>
+        <v>0.5585</v>
       </c>
       <c r="X8">
-        <v>0.39150000000000001</v>
+        <v>0.37004999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.1953</v>
+        <v>0.48085</v>
       </c>
       <c r="Z8">
-        <v>0.4763</v>
+        <v>0.46215000000000001</v>
       </c>
       <c r="AA8">
-        <v>0.42959999999999998</v>
+        <v>0.30559999999999998</v>
       </c>
       <c r="AB8">
-        <v>0.53364999999999996</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="AC8">
-        <v>5.91E-2</v>
+        <v>0.13170000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.5474</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="AE8">
-        <v>0.3669</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="AF8">
-        <v>0.42625000000000002</v>
+        <v>0.62034999999999996</v>
       </c>
       <c r="AG8">
-        <v>0.182</v>
+        <v>0.68149999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.55910000000000004</v>
+        <v>0.755</v>
       </c>
       <c r="AI8">
-        <v>0.55354999999999999</v>
+        <v>0.3453</v>
       </c>
       <c r="AJ8">
-        <v>0.58594999999999997</v>
+        <v>0.51419999999999999</v>
       </c>
       <c r="AK8">
-        <v>0.83525000000000005</v>
+        <v>0.51859999999999995</v>
       </c>
       <c r="AL8">
-        <v>0.61</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.67754999999999999</v>
+        <v>0.49825000000000003</v>
       </c>
       <c r="AN8">
-        <v>0.48225000000000001</v>
+        <v>0.68764999999999998</v>
       </c>
       <c r="AO8">
-        <v>0.1547</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="AP8">
-        <v>0.54444999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="AQ8">
-        <v>0.86470000000000002</v>
+        <v>0.3921</v>
       </c>
       <c r="AR8">
-        <v>0.44540000000000002</v>
+        <v>0.24635000000000001</v>
       </c>
       <c r="AS8">
-        <v>0.20330000000000001</v>
+        <v>0.45950000000000002</v>
       </c>
       <c r="AT8">
-        <v>0.37814999999999999</v>
+        <v>0.27710000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.43345</v>
+        <v>0.57769999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.5917</v>
+        <v>0.83665</v>
       </c>
       <c r="AW8">
-        <v>7.6200000000000004E-2</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="AX8">
-        <v>0.25605</v>
+        <v>0.67579999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.48665000000000003</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="B9">
-        <v>0.28489999999999999</v>
+        <v>0.80910000000000004</v>
       </c>
       <c r="C9">
-        <v>0.42809999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="D9">
-        <v>0.48449999999999999</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="E9">
-        <v>0.5524</v>
+        <v>0.42149999999999999</v>
       </c>
       <c r="F9">
-        <v>0.25305</v>
+        <v>0.2482</v>
       </c>
       <c r="G9">
-        <v>0.89480000000000004</v>
+        <v>0.37659999999999999</v>
       </c>
       <c r="H9">
-        <v>0.37390000000000001</v>
+        <v>0.53890000000000005</v>
       </c>
       <c r="I9">
-        <v>0.61870000000000003</v>
+        <v>0.64075000000000004</v>
       </c>
       <c r="J9">
-        <v>0.39369999999999999</v>
+        <v>0.59765000000000001</v>
       </c>
       <c r="K9">
-        <v>0.38369999999999999</v>
+        <v>0.54754999999999998</v>
       </c>
       <c r="L9">
-        <v>0.69525000000000003</v>
+        <v>0.58345000000000002</v>
       </c>
       <c r="M9">
-        <v>0.28120000000000001</v>
+        <v>0.1986</v>
       </c>
       <c r="N9">
-        <v>0.2457</v>
+        <v>0.6542</v>
       </c>
       <c r="O9">
-        <v>0.30830000000000002</v>
+        <v>0.66444999999999999</v>
       </c>
       <c r="P9">
-        <v>0.39779999999999999</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="Q9">
-        <v>0.65869999999999995</v>
+        <v>0.2576</v>
       </c>
       <c r="R9">
-        <v>8.9099999999999999E-2</v>
+        <v>0.2656</v>
       </c>
       <c r="S9">
-        <v>0.71399999999999997</v>
+        <v>0.17219999999999999</v>
       </c>
       <c r="T9">
-        <v>3.7199999999999997E-2</v>
+        <v>0.2482</v>
       </c>
       <c r="U9">
-        <v>0.26939999999999997</v>
+        <v>1.21E-2</v>
       </c>
       <c r="V9">
-        <v>0.47885</v>
+        <v>0.51470000000000005</v>
       </c>
       <c r="W9">
-        <v>0.45405000000000001</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="X9">
-        <v>0.36680000000000001</v>
+        <v>0.24149999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.18390000000000001</v>
+        <v>0.41485</v>
       </c>
       <c r="Z9">
-        <v>0.45395000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="AA9">
-        <v>0.40975</v>
+        <v>0.54554999999999998</v>
       </c>
       <c r="AB9">
-        <v>0.65024999999999999</v>
+        <v>0.23230000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.13059999999999999</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="AD9">
-        <v>0.49704999999999999</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.6431</v>
+        <v>0.47875000000000001</v>
       </c>
       <c r="AF9">
-        <v>0.55630000000000002</v>
+        <v>0.54635</v>
       </c>
       <c r="AG9">
-        <v>0.18909999999999999</v>
+        <v>0.74970000000000003</v>
       </c>
       <c r="AH9">
-        <v>0.86455000000000004</v>
+        <v>0.53115000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.43404999999999999</v>
+        <v>0.31019999999999998</v>
       </c>
       <c r="AJ9">
-        <v>0.45634999999999998</v>
+        <v>0.44219999999999998</v>
       </c>
       <c r="AK9">
-        <v>0.2286</v>
+        <v>0.88175000000000003</v>
       </c>
       <c r="AL9">
-        <v>0.54339999999999999</v>
+        <v>0.4667</v>
       </c>
       <c r="AM9">
-        <v>0.60950000000000004</v>
+        <v>0.25190000000000001</v>
       </c>
       <c r="AN9">
-        <v>0.48620000000000002</v>
+        <v>0.45324999999999999</v>
       </c>
       <c r="AO9">
-        <v>0.23780000000000001</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="AP9">
-        <v>0.52825</v>
+        <v>0.74909999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.9879</v>
+        <v>0.44269999999999998</v>
       </c>
       <c r="AR9">
-        <v>0.29544999999999999</v>
+        <v>0.37940000000000002</v>
       </c>
       <c r="AS9">
-        <v>6.4799999999999996E-2</v>
+        <v>0.43540000000000001</v>
       </c>
       <c r="AT9">
-        <v>0.23039999999999999</v>
+        <v>0.17319999999999999</v>
       </c>
       <c r="AU9">
-        <v>0.45429999999999998</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="AV9">
-        <v>0.18049999999999999</v>
+        <v>0.6099</v>
       </c>
       <c r="AW9">
-        <v>0.111</v>
+        <v>0.64349999999999996</v>
       </c>
       <c r="AX9">
-        <v>0.1215</v>
+        <v>0.81684999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.63905000000000001</v>
+        <v>0.8528</v>
       </c>
       <c r="B10">
-        <v>0.442</v>
+        <v>0.78254999999999997</v>
       </c>
       <c r="C10">
-        <v>0.37280000000000002</v>
+        <v>0.39960000000000001</v>
       </c>
       <c r="D10">
-        <v>0.26779999999999998</v>
+        <v>0.23769999999999999</v>
       </c>
       <c r="E10">
-        <v>0.62880000000000003</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="F10">
-        <v>8.4000000000000005E-2</v>
+        <v>0.13650000000000001</v>
       </c>
       <c r="G10">
-        <v>0.96555000000000002</v>
+        <v>0.39029999999999998</v>
       </c>
       <c r="H10">
-        <v>0.32590000000000002</v>
+        <v>0.66049999999999998</v>
       </c>
       <c r="I10">
-        <v>0.3599</v>
+        <v>0.5887</v>
       </c>
       <c r="J10">
-        <v>0.24149999999999999</v>
+        <v>0.61034999999999995</v>
       </c>
       <c r="K10">
-        <v>0.38640000000000002</v>
+        <v>0.55610000000000004</v>
       </c>
       <c r="L10">
-        <v>0.80005000000000004</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="M10">
-        <v>0.31080000000000002</v>
+        <v>0.29849999999999999</v>
       </c>
       <c r="N10">
-        <v>0.31169999999999998</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="O10">
-        <v>0.2014</v>
+        <v>0.59524999999999995</v>
       </c>
       <c r="P10">
-        <v>0.49969999999999998</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="Q10">
-        <v>0.62439999999999996</v>
+        <v>0.14330000000000001</v>
       </c>
       <c r="R10">
-        <v>0.3125</v>
+        <v>0.2994</v>
       </c>
       <c r="S10">
-        <v>0.69379999999999997</v>
+        <v>0.13835</v>
       </c>
       <c r="T10">
-        <v>7.9799999999999996E-2</v>
+        <v>0.33510000000000001</v>
       </c>
       <c r="U10">
-        <v>0.32250000000000001</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="V10">
-        <v>0.38624999999999998</v>
+        <v>0.45369999999999999</v>
       </c>
       <c r="W10">
-        <v>0.47260000000000002</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="X10">
-        <v>0.15939999999999999</v>
+        <v>0.2727</v>
       </c>
       <c r="Y10">
-        <v>0.26329999999999998</v>
+        <v>0.65344999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.54179999999999995</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.36890000000000001</v>
+        <v>0.52429999999999999</v>
       </c>
       <c r="AB10">
-        <v>0.73114999999999997</v>
+        <v>0.29094999999999999</v>
       </c>
       <c r="AC10">
-        <v>5.3600000000000002E-2</v>
+        <v>0.38790000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.42904999999999999</v>
+        <v>0.53159999999999996</v>
       </c>
       <c r="AE10">
-        <v>0.64790000000000003</v>
+        <v>0.47754999999999997</v>
       </c>
       <c r="AF10">
-        <v>0.33169999999999999</v>
+        <v>0.6855</v>
       </c>
       <c r="AG10">
-        <v>0.1173</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.84255000000000002</v>
+        <v>0.62350000000000005</v>
       </c>
       <c r="AI10">
-        <v>0.37535000000000002</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="AJ10">
-        <v>0.1658</v>
+        <v>0.5121</v>
       </c>
       <c r="AK10">
-        <v>0.36</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="AL10">
-        <v>0.31690000000000002</v>
+        <v>0.59850000000000003</v>
       </c>
       <c r="AM10">
-        <v>0.47410000000000002</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="AN10">
-        <v>0.52049999999999996</v>
+        <v>9.9500000000000005E-2</v>
       </c>
       <c r="AO10">
-        <v>0.32729999999999998</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="AP10">
-        <v>0.55520000000000003</v>
+        <v>0.43240000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.74304999999999999</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="AR10">
-        <v>0.30759999999999998</v>
+        <v>0.5413</v>
       </c>
       <c r="AS10">
-        <v>0.13089999999999999</v>
+        <v>0.66110000000000002</v>
       </c>
       <c r="AT10">
-        <v>0.1744</v>
+        <v>0.26619999999999999</v>
       </c>
       <c r="AU10">
-        <v>0.48709999999999998</v>
+        <v>0.74590000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.40739999999999998</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="AW10">
-        <v>0.28989999999999999</v>
+        <v>0.56479999999999997</v>
       </c>
       <c r="AX10">
-        <v>0.29559999999999997</v>
+        <v>0.91220000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.81640000000000001</v>
+        <v>0.31380000000000002</v>
       </c>
       <c r="B11">
-        <v>0.67030000000000001</v>
+        <v>0.30990000000000001</v>
       </c>
       <c r="C11">
-        <v>0.88729999999999998</v>
+        <v>0.4078</v>
       </c>
       <c r="D11">
-        <v>0.45240000000000002</v>
+        <v>0.45490000000000003</v>
       </c>
       <c r="E11">
-        <v>0.51259999999999994</v>
+        <v>0.1779</v>
       </c>
       <c r="F11">
-        <v>0.28589999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="G11">
-        <v>0.97309999999999997</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="H11">
-        <v>0.61099999999999999</v>
+        <v>0.52229999999999999</v>
       </c>
       <c r="I11">
-        <v>0.48199999999999998</v>
+        <v>0.38219999999999998</v>
       </c>
       <c r="J11">
-        <v>0.32600000000000001</v>
+        <v>0.4819</v>
       </c>
       <c r="K11">
-        <v>0.39789999999999998</v>
+        <v>0.40689999999999998</v>
       </c>
       <c r="L11">
-        <v>0.58840000000000003</v>
+        <v>0.77949999999999997</v>
       </c>
       <c r="M11">
-        <v>0.31</v>
+        <v>0.21079999999999999</v>
       </c>
       <c r="N11">
-        <v>0.31690000000000002</v>
+        <v>0.60019999999999996</v>
       </c>
       <c r="O11">
-        <v>0.25459999999999999</v>
+        <v>0.58509999999999995</v>
       </c>
       <c r="P11">
-        <v>0.53680000000000005</v>
+        <v>0.79279999999999995</v>
       </c>
       <c r="Q11">
-        <v>0.5323</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="R11">
-        <v>0.3448</v>
+        <v>0.25059999999999999</v>
       </c>
       <c r="S11">
-        <v>0.60250000000000004</v>
+        <v>0.2122</v>
       </c>
       <c r="T11">
-        <v>0.27850000000000003</v>
+        <v>0.40560000000000002</v>
       </c>
       <c r="U11">
-        <v>0.13750000000000001</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="V11">
-        <v>0.56669999999999998</v>
+        <v>0.41839999999999999</v>
       </c>
       <c r="W11">
-        <v>0.47570000000000001</v>
+        <v>0.35630000000000001</v>
       </c>
       <c r="X11">
-        <v>0.2944</v>
+        <v>0.31364999999999998</v>
       </c>
       <c r="Y11">
-        <v>0.34239999999999998</v>
+        <v>0.76239999999999997</v>
       </c>
       <c r="Z11">
-        <v>0.41439999999999999</v>
+        <v>0.25790000000000002</v>
       </c>
       <c r="AA11">
-        <v>0.15359999999999999</v>
+        <v>0.79325000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.73280000000000001</v>
+        <v>0.40660000000000002</v>
       </c>
       <c r="AC11">
-        <v>0.35510000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="AD11">
-        <v>0.61570000000000003</v>
+        <v>0.22159999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.54384999999999994</v>
+        <v>0.48949999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.36430000000000001</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="AG11">
-        <v>0.1084</v>
+        <v>0.4577</v>
       </c>
       <c r="AH11">
-        <v>0.86294999999999999</v>
+        <v>0.4904</v>
       </c>
       <c r="AI11">
-        <v>0.47360000000000002</v>
+        <v>0.37609999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.3256</v>
+        <v>0.63075000000000003</v>
       </c>
       <c r="AK11">
-        <v>0.33579999999999999</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="AL11">
-        <v>0.16839999999999999</v>
+        <v>0.4047</v>
       </c>
       <c r="AM11">
-        <v>0.53120000000000001</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="AN11">
-        <v>0.65749999999999997</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.42104999999999998</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="AP11">
-        <v>0.55110000000000003</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="AQ11">
-        <v>0.78080000000000005</v>
+        <v>0.16</v>
       </c>
       <c r="AR11">
-        <v>0.1908</v>
+        <v>0.64139999999999997</v>
       </c>
       <c r="AS11">
-        <v>0.24510000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="AT11">
-        <v>0.24199999999999999</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.50519999999999998</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="AV11">
-        <v>0.2165</v>
+        <v>0.42649999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.44469999999999998</v>
+        <v>0.58209999999999995</v>
       </c>
       <c r="AX11">
-        <v>0.4294</v>
+        <v>0.95289999999999997</v>
       </c>
     </row>
   </sheetData>
